--- a/biology/Botanique/Céraiste_cotonneux/Céraiste_cotonneux.xlsx
+++ b/biology/Botanique/Céraiste_cotonneux/Céraiste_cotonneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_cotonneux</t>
+          <t>Céraiste_cotonneux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerastium tomentosum
 Le Céraiste cotonneux (Cerastium tomentosum), également appelé Céraiste corbeille d'argent, Céraiste argenté ou Céraiste tomenteux, est une plante herbacée appartenant au genre Cerastium et à la famille des Caryophyllacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_cotonneux</t>
+          <t>Céraiste_cotonneux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céraiste cotonneux est une plante vivace de 15 à 20 cm de haut. Elle s'étend grâce à ses rhizomes.
 Les feuilles opposées, sessiles, sont tomenteuses, c'est-à-dire couvertes de poils soyeux, argentés, crépus et enchevêtrés, formant comme un feutrage blanchâtre. Elles sont linéaires, les plus grandes de 8 mm de large sur 50 mm de long.
 L'inflorescence est une cyme bipare portant de 3 à 13 fleurs. Les pédicelles de 10 à 40 mm portent des fleurs blanches de 15-25 mm de diamètre, à 10 étamines et 5 styles, entourés par 5 pétales à deux lobes et un calice dialysépale à 5 divisions. La floraison, très abondante, a lieu en mai-juin. La pollinisation est entomogame.
 Le fruit est une capsule cylindrique, denticide, de 10-15 mm, érigée.
-C'est une plante très variable, à la fois dans son aire naturelle et par ses cultivars[1].
+C'est une plante très variable, à la fois dans son aire naturelle et par ses cultivars.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_cotonneux</t>
+          <t>Céraiste_cotonneux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cerastium tomentosum est originaire d'Italie du sud[2],[3]. Pour certains botanistes[4], elle serait originaire du Caucase et du sud-est de l'Europe.
-Elle s'est naturalisée au Canada, aux États-Unis et en France, où elle est aussi souvent subspontanée[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cerastium tomentosum est originaire d'Italie du sud,. Pour certains botanistes, elle serait originaire du Caucase et du sud-est de l'Europe.
+Elle s'est naturalisée au Canada, aux États-Unis et en France, où elle est aussi souvent subspontanée.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9raiste_cotonneux</t>
+          <t>Céraiste_cotonneux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Céraiste cotonneux est une plante horticole, vivace, de rocaille, formant des tapis argentés denses.
 Cette plante est peu exigeante : elle apprécie un sol pauvre, riche en graviers, bien drainé, dans un endroit ensoleillé. Elle s'étend facilement par ses rhizomes.
